--- a/parceiros_inst.xlsx
+++ b/parceiros_inst.xlsx
@@ -27,25 +27,25 @@
     <t>Instituicao</t>
   </si>
   <si>
+    <t>PARQUE DE CHIMANIMANI</t>
+  </si>
+  <si>
+    <t>UCM</t>
+  </si>
+  <si>
+    <t>MICAIA</t>
+  </si>
+  <si>
+    <t>ISPM</t>
+  </si>
+  <si>
+    <t>ITAM</t>
+  </si>
+  <si>
     <t>UNIZAMBEZE</t>
   </si>
   <si>
     <t>SDAE SUSSUNDENGA</t>
-  </si>
-  <si>
-    <t>ISPM</t>
-  </si>
-  <si>
-    <t>UCM</t>
-  </si>
-  <si>
-    <t>MICAIA</t>
-  </si>
-  <si>
-    <t>ITAM</t>
-  </si>
-  <si>
-    <t>PARQUE DE CHIMANIMANI</t>
   </si>
   <si>
     <t>PARQUE DE GORONGOSA</t>
@@ -129,10 +129,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -163,13 +163,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -180,10 +180,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
@@ -197,13 +197,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -214,10 +214,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="0">
         <v>1</v>

--- a/parceiros_inst.xlsx
+++ b/parceiros_inst.xlsx
@@ -27,25 +27,25 @@
     <t>Instituicao</t>
   </si>
   <si>
+    <t>ISPM</t>
+  </si>
+  <si>
+    <t>SDAE SUSSUNDENGA</t>
+  </si>
+  <si>
+    <t>MICAIA</t>
+  </si>
+  <si>
+    <t>ITAM</t>
+  </si>
+  <si>
     <t>PARQUE DE CHIMANIMANI</t>
   </si>
   <si>
     <t>UCM</t>
   </si>
   <si>
-    <t>MICAIA</t>
-  </si>
-  <si>
-    <t>ISPM</t>
-  </si>
-  <si>
-    <t>ITAM</t>
-  </si>
-  <si>
     <t>UNIZAMBEZE</t>
-  </si>
-  <si>
-    <t>SDAE SUSSUNDENGA</t>
   </si>
   <si>
     <t>PARQUE DE GORONGOSA</t>
@@ -129,10 +129,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -180,10 +180,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
@@ -214,10 +214,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0">
         <v>1</v>
@@ -231,10 +231,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0">
         <v>1</v>

--- a/parceiros_inst.xlsx
+++ b/parceiros_inst.xlsx
@@ -27,25 +27,25 @@
     <t>Instituicao</t>
   </si>
   <si>
+    <t>PARQUE DE CHIMANIMANI</t>
+  </si>
+  <si>
+    <t>UCM</t>
+  </si>
+  <si>
+    <t>ITAM</t>
+  </si>
+  <si>
+    <t>UNIZAMBEZE</t>
+  </si>
+  <si>
+    <t>SDAE SUSSUNDENGA</t>
+  </si>
+  <si>
+    <t>MICAIA</t>
+  </si>
+  <si>
     <t>ISPM</t>
-  </si>
-  <si>
-    <t>SDAE SUSSUNDENGA</t>
-  </si>
-  <si>
-    <t>MICAIA</t>
-  </si>
-  <si>
-    <t>ITAM</t>
-  </si>
-  <si>
-    <t>PARQUE DE CHIMANIMANI</t>
-  </si>
-  <si>
-    <t>UCM</t>
-  </si>
-  <si>
-    <t>UNIZAMBEZE</t>
   </si>
   <si>
     <t>PARQUE DE GORONGOSA</t>
@@ -129,10 +129,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -163,13 +163,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -180,10 +180,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
@@ -214,13 +214,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">

--- a/parceiros_inst.xlsx
+++ b/parceiros_inst.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Regiao</t>
   </si>
@@ -30,22 +30,22 @@
     <t>PARQUE DE CHIMANIMANI</t>
   </si>
   <si>
+    <t>ISPM</t>
+  </si>
+  <si>
     <t>UCM</t>
   </si>
   <si>
+    <t>SDAE SUSSUNDENGA</t>
+  </si>
+  <si>
+    <t>UNIZAMBEZE</t>
+  </si>
+  <si>
+    <t>MICAIA</t>
+  </si>
+  <si>
     <t>ITAM</t>
-  </si>
-  <si>
-    <t>UNIZAMBEZE</t>
-  </si>
-  <si>
-    <t>SDAE SUSSUNDENGA</t>
-  </si>
-  <si>
-    <t>MICAIA</t>
-  </si>
-  <si>
-    <t>ISPM</t>
   </si>
   <si>
     <t>PARQUE DE GORONGOSA</t>
@@ -101,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -146,10 +146,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0">
         <v>1</v>
@@ -180,10 +180,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
@@ -197,10 +197,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0">
         <v>1</v>
@@ -231,10 +231,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0">
         <v>1</v>
@@ -257,6 +257,23 @@
         <v>23</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0">
+        <v>4</v>
+      </c>
+      <c r="E10" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/parceiros_inst.xlsx
+++ b/parceiros_inst.xlsx
@@ -27,25 +27,25 @@
     <t>Instituicao</t>
   </si>
   <si>
+    <t>UNIZAMBEZE</t>
+  </si>
+  <si>
+    <t>MICAIA</t>
+  </si>
+  <si>
+    <t>SDAE SUSSUNDENGA</t>
+  </si>
+  <si>
     <t>PARQUE DE CHIMANIMANI</t>
   </si>
   <si>
+    <t>ITAM</t>
+  </si>
+  <si>
     <t>ISPM</t>
   </si>
   <si>
     <t>UCM</t>
-  </si>
-  <si>
-    <t>SDAE SUSSUNDENGA</t>
-  </si>
-  <si>
-    <t>UNIZAMBEZE</t>
-  </si>
-  <si>
-    <t>MICAIA</t>
-  </si>
-  <si>
-    <t>ITAM</t>
   </si>
   <si>
     <t>PARQUE DE GORONGOSA</t>
@@ -129,10 +129,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -146,13 +146,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -197,10 +197,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
         <v>1</v>
@@ -214,13 +214,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">

--- a/parceiros_inst.xlsx
+++ b/parceiros_inst.xlsx
@@ -27,22 +27,22 @@
     <t>Instituicao</t>
   </si>
   <si>
+    <t>PARQUE DE CHIMANIMANI</t>
+  </si>
+  <si>
+    <t>ISPM</t>
+  </si>
+  <si>
+    <t>SDAE SUSSUNDENGA</t>
+  </si>
+  <si>
+    <t>ITAM</t>
+  </si>
+  <si>
+    <t>MICAIA</t>
+  </si>
+  <si>
     <t>UNIZAMBEZE</t>
-  </si>
-  <si>
-    <t>MICAIA</t>
-  </si>
-  <si>
-    <t>SDAE SUSSUNDENGA</t>
-  </si>
-  <si>
-    <t>PARQUE DE CHIMANIMANI</t>
-  </si>
-  <si>
-    <t>ITAM</t>
-  </si>
-  <si>
-    <t>ISPM</t>
   </si>
   <si>
     <t>UCM</t>
@@ -129,10 +129,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -146,13 +146,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -197,13 +197,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -245,16 +245,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D9" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -262,16 +262,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D10" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/parceiros_inst.xlsx
+++ b/parceiros_inst.xlsx
@@ -27,25 +27,25 @@
     <t>Instituicao</t>
   </si>
   <si>
+    <t>UNIZAMBEZE</t>
+  </si>
+  <si>
+    <t>ITAM</t>
+  </si>
+  <si>
+    <t>SDAE SUSSUNDENGA</t>
+  </si>
+  <si>
+    <t>ISPM</t>
+  </si>
+  <si>
     <t>PARQUE DE CHIMANIMANI</t>
   </si>
   <si>
-    <t>ISPM</t>
-  </si>
-  <si>
-    <t>SDAE SUSSUNDENGA</t>
-  </si>
-  <si>
-    <t>ITAM</t>
+    <t>UCM</t>
   </si>
   <si>
     <t>MICAIA</t>
-  </si>
-  <si>
-    <t>UNIZAMBEZE</t>
-  </si>
-  <si>
-    <t>UCM</t>
   </si>
   <si>
     <t>PARQUE DE GORONGOSA</t>
@@ -129,10 +129,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -146,10 +146,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
         <v>1</v>
@@ -180,10 +180,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
@@ -197,13 +197,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -214,10 +214,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0">
         <v>1</v>
@@ -231,13 +231,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -245,16 +245,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D9" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -262,16 +262,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C10" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/parceiros_inst.xlsx
+++ b/parceiros_inst.xlsx
@@ -27,25 +27,25 @@
     <t>Instituicao</t>
   </si>
   <si>
+    <t>ITAM</t>
+  </si>
+  <si>
+    <t>ISPM</t>
+  </si>
+  <si>
+    <t>MICAIA</t>
+  </si>
+  <si>
+    <t>SDAE SUSSUNDENGA</t>
+  </si>
+  <si>
     <t>UNIZAMBEZE</t>
   </si>
   <si>
-    <t>ITAM</t>
-  </si>
-  <si>
-    <t>SDAE SUSSUNDENGA</t>
-  </si>
-  <si>
-    <t>ISPM</t>
-  </si>
-  <si>
     <t>PARQUE DE CHIMANIMANI</t>
   </si>
   <si>
     <t>UCM</t>
-  </si>
-  <si>
-    <t>MICAIA</t>
   </si>
   <si>
     <t>PARQUE DE GORONGOSA</t>
@@ -129,10 +129,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -146,10 +146,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0">
         <v>1</v>
@@ -163,13 +163,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -180,10 +180,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>1</v>
@@ -197,10 +197,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0">
         <v>1</v>
@@ -231,13 +231,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -245,16 +245,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D9" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -262,16 +262,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D10" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/parceiros_inst.xlsx
+++ b/parceiros_inst.xlsx
@@ -27,25 +27,25 @@
     <t>Instituicao</t>
   </si>
   <si>
+    <t>SDAE SUSSUNDENGA</t>
+  </si>
+  <si>
+    <t>MICAIA</t>
+  </si>
+  <si>
+    <t>PARQUE DE CHIMANIMANI</t>
+  </si>
+  <si>
+    <t>UCM</t>
+  </si>
+  <si>
+    <t>UNIZAMBEZE</t>
+  </si>
+  <si>
+    <t>ISPM</t>
+  </si>
+  <si>
     <t>ITAM</t>
-  </si>
-  <si>
-    <t>ISPM</t>
-  </si>
-  <si>
-    <t>MICAIA</t>
-  </si>
-  <si>
-    <t>SDAE SUSSUNDENGA</t>
-  </si>
-  <si>
-    <t>UNIZAMBEZE</t>
-  </si>
-  <si>
-    <t>PARQUE DE CHIMANIMANI</t>
-  </si>
-  <si>
-    <t>UCM</t>
   </si>
   <si>
     <t>PARQUE DE GORONGOSA</t>
@@ -146,13 +146,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -163,13 +163,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -214,10 +214,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="0">
         <v>1</v>
